--- a/biology/Botanique/Louis_Alphonse_de_Brébisson/Louis_Alphonse_de_Brébisson.xlsx
+++ b/biology/Botanique/Louis_Alphonse_de_Brébisson/Louis_Alphonse_de_Brébisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Alphonse_de_Br%C3%A9bisson</t>
+          <t>Louis_Alphonse_de_Brébisson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Alphonse de Brébisson, né à Falaise (Calvados) le 25 septembre 1798 et mort le 26 avril 1872, est un botaniste et photographe français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Alphonse_de_Br%C3%A9bisson</t>
+          <t>Louis_Alphonse_de_Brébisson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Alphonse de Brébisson appartient à une famille subsistante de la noblesse française[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Alphonse de Brébisson appartient à une famille subsistante de la noblesse française.
 Botaniste célèbre pour sa Flore de la Normandie qui a connu de multiples rééditions, Brébisson a été l’un des premiers botanistes à découvrir les algues microscopiques. Il a participé, avec Persoon (1755-1837), Dechauffour de Boisduval (1799-1879) et de Gaillon (1798-1872), à la Flore générale de France ou Iconographie, description et histoire de toutes les plantes entreprise par Loiseleur-Deslongchamps (1774-1849) (Ferra jeune, Paris, 1828-1829).
 S’intéressant également à la photographie dès 1839, Brébisson est un pionnier en Normandie de cet art naissant qu’il a contribué à perfectionner par ses nombreuses expérimentations et publications sur le sujet. Brébisson a également, en tant qu’artiste photographe, contribué à l’émergence d’une école normande de photographie par les nombreux contacts qu'il a entretenus avec les photographes de sa région. Membre fondateur de la Société française de photographie le 30 novembre 1854, Brébisson a également participé à l’Exposition universelle de Londres de 1862.
 La Médiathèque de l'architecture et du patrimoine possède 600 de ses plaques à l’albumine ou au collodion.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Alphonse_de_Br%C3%A9bisson</t>
+          <t>Louis_Alphonse_de_Brébisson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,25 +561,64 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Botanique
-Additions à la liste des desmidiées de la Basse-Normandie et explication des planches, Cherbourg, Feuardent, 1857
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Additions à la liste des desmidiées de la Basse-Normandie et explication des planches, Cherbourg, Feuardent, 1857
 Algues des environs de Falaise décrites et dessinées par MM. de Brébisson et Godey, Falaise, Brée l’aîné, 1835
 Coléoptères de Normandie, [s.l. : s.n.], 1835-1875
 Considérations sur les Diatomées : et essai d’une classification des genres et des espèces appartenant à cette famille, Falaise, Brée, 1838 ; réimp. 1979
 De la Structure des valves des diatomacées, Paris, Savy, 1872
 Description de quelques nouvelles diatomées observées dans le guano du Pérou : formant le genre Spatangidium, Caen, A. Hardel, 1857
 Diatmacées ; renfermées dans de le médicament vermifuge connu sous le nom de Mousse de Corse, Falaise, France, 1872
-Flore de la Normandie : phanérogames et cryptogames semi-vasculaires, Caen, Le Blanc-Hardel, 1836-69, 400 p. [1]
+Flore de la Normandie : phanérogames et cryptogames semi-vasculaires, Caen, Le Blanc-Hardel, 1836-69, 400 p. 
 L’étudiant micrographe ; traité théorique et pratique du microscope et des préparations, Paris, Delahaye, 1865
 Mémoire sur les diatomées, Paris, l'Auteur, 1839
 Mousses de la Normandie, Falaise, A. de Brébisson, 1826-39
 Note sur quelques diatomées marines rares ou peu connues du littoral de Cherbourg, Paris, F. Savy, 1867
 Quelques remarques sur le genre Filago, et sur les espèces ou variétés qu’il renferme en Normandie, Caen, Blanc-Hardel, 1868
 Résumé d’un cours de botanique élémentaire présenté, Falaise, Brée l’aîné, 1837
-Statistique de l’arrondissement de Falaise, Falaise, Brée l’aîné, 1826-1828 ; Paris, Res Universis, 1993
-Photographie
-Collodion sec instantané détails complets sur ce procédé : suivis d’un appendice renfermant une revue de plusieurs méthodes de collodion sec, Paris, Leiber, 1863
-De quelques modifications apportées aux procédés du daguerréotype, Falaise, imprimerie de Levavasseur, 1841 [2]
+Statistique de l’arrondissement de Falaise, Falaise, Brée l’aîné, 1826-1828 ; Paris, Res Universis, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Alphonse_de_Brébisson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Alphonse_de_Br%C3%A9bisson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Photographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Collodion sec instantané détails complets sur ce procédé : suivis d’un appendice renfermant une revue de plusieurs méthodes de collodion sec, Paris, Leiber, 1863
+De quelques modifications apportées aux procédés du daguerréotype, Falaise, imprimerie de Levavasseur, 1841 
 Glanes photographiques. Notes complémentaires concernant la photographie sur papier, Paris, C. Chevalier, 1848
 Nouvelle méthode photographique sur collodion, donnant des épreuves instantanées négatives et positives ; traité complet des divers procédés, Paris, C. Chevalier, 1853
 Œuvre de grands photographes, Paris, Bibliothèque Nationale, 1982
